--- a/Code/Results/Cases/Case_4_129/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_129/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9808796602661553</v>
+        <v>1.021825799315812</v>
       </c>
       <c r="D2">
-        <v>1.003185260890933</v>
+        <v>1.02677758826004</v>
       </c>
       <c r="E2">
-        <v>0.98919042427795</v>
+        <v>1.025446449336963</v>
       </c>
       <c r="F2">
-        <v>0.9566901678769163</v>
+        <v>1.020263360083504</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038133375796825</v>
+        <v>1.028636915750121</v>
       </c>
       <c r="J2">
-        <v>1.003647694853419</v>
+        <v>1.027015082493927</v>
       </c>
       <c r="K2">
-        <v>1.014600397625698</v>
+        <v>1.029599243765538</v>
       </c>
       <c r="L2">
-        <v>1.000802436544836</v>
+        <v>1.028271995973042</v>
       </c>
       <c r="M2">
-        <v>0.9687877744751214</v>
+        <v>1.023104162991646</v>
       </c>
       <c r="N2">
-        <v>1.00507298970011</v>
+        <v>1.028473561711347</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9871663943449523</v>
+        <v>1.023060463188128</v>
       </c>
       <c r="D3">
-        <v>1.007938012700555</v>
+        <v>1.027705593567972</v>
       </c>
       <c r="E3">
-        <v>0.9949380323240357</v>
+        <v>1.026628730790911</v>
       </c>
       <c r="F3">
-        <v>0.9658497242226775</v>
+        <v>1.022141080287777</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040041530652696</v>
+        <v>1.028897005054352</v>
       </c>
       <c r="J3">
-        <v>1.008013137407179</v>
+        <v>1.027886049338967</v>
       </c>
       <c r="K3">
-        <v>1.018470322799204</v>
+        <v>1.030334508988781</v>
       </c>
       <c r="L3">
-        <v>1.005636094345149</v>
+        <v>1.029260564439648</v>
       </c>
       <c r="M3">
-        <v>0.9769390524969719</v>
+        <v>1.02478514686409</v>
       </c>
       <c r="N3">
-        <v>1.00944463168302</v>
+        <v>1.029345765429206</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9911141025712394</v>
+        <v>1.023858039731887</v>
       </c>
       <c r="D4">
-        <v>1.010921853980468</v>
+        <v>1.028304458515929</v>
       </c>
       <c r="E4">
-        <v>0.9985525297670267</v>
+        <v>1.027392797558433</v>
       </c>
       <c r="F4">
-        <v>0.9715872419210662</v>
+        <v>1.023354415912725</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041221930591056</v>
+        <v>1.0290628047428</v>
       </c>
       <c r="J4">
-        <v>1.010747874538618</v>
+        <v>1.028447841553504</v>
       </c>
       <c r="K4">
-        <v>1.020890225062565</v>
+        <v>1.030808041505883</v>
       </c>
       <c r="L4">
-        <v>1.008668455929691</v>
+        <v>1.029898725652598</v>
       </c>
       <c r="M4">
-        <v>0.9820411271343523</v>
+        <v>1.025870786334476</v>
       </c>
       <c r="N4">
-        <v>1.012183252454864</v>
+        <v>1.029908355453126</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9927464755026391</v>
+        <v>1.024193026489813</v>
       </c>
       <c r="D5">
-        <v>1.012155420155584</v>
+        <v>1.02855583703917</v>
       </c>
       <c r="E5">
-        <v>1.000048349968199</v>
+        <v>1.027713788236555</v>
       </c>
       <c r="F5">
-        <v>0.9739568614125362</v>
+        <v>1.023864114188115</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041705680640467</v>
+        <v>1.029131910553565</v>
       </c>
       <c r="J5">
-        <v>1.01187710005249</v>
+        <v>1.028683595978233</v>
       </c>
       <c r="K5">
-        <v>1.021888342695297</v>
+        <v>1.031006582556831</v>
       </c>
       <c r="L5">
-        <v>1.009921605931829</v>
+        <v>1.030166651159147</v>
       </c>
       <c r="M5">
-        <v>0.9841473250434861</v>
+        <v>1.026326705254306</v>
       </c>
       <c r="N5">
-        <v>1.01331408159849</v>
+        <v>1.03014444467618</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9930190028794246</v>
+        <v>1.024249253942322</v>
       </c>
       <c r="D6">
-        <v>1.012361348588026</v>
+        <v>1.028598022141548</v>
       </c>
       <c r="E6">
-        <v>1.000298150578627</v>
+        <v>1.027767671024671</v>
       </c>
       <c r="F6">
-        <v>0.9743523216861417</v>
+        <v>1.023949672392328</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041786186008289</v>
+        <v>1.029143478781323</v>
       </c>
       <c r="J6">
-        <v>1.012065532210244</v>
+        <v>1.028723155478028</v>
       </c>
       <c r="K6">
-        <v>1.022054830665378</v>
+        <v>1.031039887350632</v>
       </c>
       <c r="L6">
-        <v>1.010130777643399</v>
+        <v>1.030211616175844</v>
       </c>
       <c r="M6">
-        <v>0.9844987643184173</v>
+        <v>1.026403228003625</v>
       </c>
       <c r="N6">
-        <v>1.013502781351521</v>
+        <v>1.030184060355002</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9911360195271892</v>
+        <v>1.023862517070864</v>
       </c>
       <c r="D7">
-        <v>1.010938417497093</v>
+        <v>1.028307818954823</v>
       </c>
       <c r="E7">
-        <v>0.9985726085023255</v>
+        <v>1.027397087522814</v>
       </c>
       <c r="F7">
-        <v>0.971619068005104</v>
+        <v>1.023361228034744</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041228442917129</v>
+        <v>1.029063730480139</v>
       </c>
       <c r="J7">
-        <v>1.010763042321786</v>
+        <v>1.02845099337359</v>
       </c>
       <c r="K7">
-        <v>1.020903636244117</v>
+        <v>1.030810696508415</v>
       </c>
       <c r="L7">
-        <v>1.008685284196801</v>
+        <v>1.029902307086387</v>
       </c>
       <c r="M7">
-        <v>0.9820694191860276</v>
+        <v>1.025876880232675</v>
       </c>
       <c r="N7">
-        <v>1.012198441778025</v>
+        <v>1.029911511749158</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9830301551679498</v>
+        <v>1.022243338790567</v>
       </c>
       <c r="D8">
-        <v>1.004811093891034</v>
+        <v>1.027091548352016</v>
       </c>
       <c r="E8">
-        <v>0.991155345057256</v>
+        <v>1.025846205712676</v>
       </c>
       <c r="F8">
-        <v>0.9598267162284266</v>
+        <v>1.020898299041431</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038789811213845</v>
+        <v>1.028725331490365</v>
       </c>
       <c r="J8">
-        <v>1.005142336020002</v>
+        <v>1.027309800815086</v>
       </c>
       <c r="K8">
-        <v>1.015926287859687</v>
+        <v>1.029848194089711</v>
       </c>
       <c r="L8">
-        <v>1.002456470854238</v>
+        <v>1.02860640194622</v>
       </c>
       <c r="M8">
-        <v>0.9715798342820983</v>
+        <v>1.0236726948276</v>
       </c>
       <c r="N8">
-        <v>1.006569753428588</v>
+        <v>1.028768698566325</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9677488994652402</v>
+        <v>1.019379708402245</v>
       </c>
       <c r="D9">
-        <v>0.9932599504341969</v>
+        <v>1.024935820383436</v>
       </c>
       <c r="E9">
-        <v>0.9772180473341057</v>
+        <v>1.023105906916156</v>
       </c>
       <c r="F9">
-        <v>0.9374504402508704</v>
+        <v>1.01654489301558</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034051211644084</v>
+        <v>1.02810986875443</v>
       </c>
       <c r="J9">
-        <v>0.9944942863564783</v>
+        <v>1.025285071067572</v>
       </c>
       <c r="K9">
-        <v>1.006463335042039</v>
+        <v>1.028134918464202</v>
       </c>
       <c r="L9">
-        <v>0.9906918864787277</v>
+        <v>1.026311128683648</v>
       </c>
       <c r="M9">
-        <v>0.9516469902710452</v>
+        <v>1.019772269943535</v>
       </c>
       <c r="N9">
-        <v>0.9959065823131934</v>
+        <v>1.02674109347033</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9567689598764313</v>
+        <v>1.017463299696199</v>
       </c>
       <c r="D10">
-        <v>0.984968197923456</v>
+        <v>1.023490085329444</v>
       </c>
       <c r="E10">
-        <v>0.9672389504932744</v>
+        <v>1.021273774141786</v>
       </c>
       <c r="F10">
-        <v>0.9212229913861338</v>
+        <v>1.013632788682517</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030554952759146</v>
+        <v>1.027686607995972</v>
       </c>
       <c r="J10">
-        <v>0.9868093687520862</v>
+        <v>1.023925747036516</v>
       </c>
       <c r="K10">
-        <v>0.9996142657303964</v>
+        <v>1.026980983986623</v>
       </c>
       <c r="L10">
-        <v>0.9822260286701058</v>
+        <v>1.024772826293016</v>
       </c>
       <c r="M10">
-        <v>0.9371768361643277</v>
+        <v>1.017160253517119</v>
       </c>
       <c r="N10">
-        <v>0.9882107512443308</v>
+        <v>1.025379839043232</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9517943911689553</v>
+        <v>1.016631667316579</v>
       </c>
       <c r="D11">
-        <v>0.9812154188902069</v>
+        <v>1.022861989800422</v>
       </c>
       <c r="E11">
-        <v>0.9627271650668638</v>
+        <v>1.02047913222983</v>
       </c>
       <c r="F11">
-        <v>0.9138214095351264</v>
+        <v>1.012369300417548</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028950364388442</v>
+        <v>1.027500242958489</v>
       </c>
       <c r="J11">
-        <v>0.9833197969847118</v>
+        <v>1.023334839616875</v>
       </c>
       <c r="K11">
-        <v>0.996500497629603</v>
+        <v>1.026478491381429</v>
       </c>
       <c r="L11">
-        <v>0.9783879711829134</v>
+        <v>1.024104744283474</v>
       </c>
       <c r="M11">
-        <v>0.9305746319952466</v>
+        <v>1.016026275922723</v>
       </c>
       <c r="N11">
-        <v>0.9847162238847872</v>
+        <v>1.024788092467278</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9499103293955005</v>
+        <v>1.016322483263182</v>
       </c>
       <c r="D12">
-        <v>0.9797948651997058</v>
+        <v>1.022628370626005</v>
       </c>
       <c r="E12">
-        <v>0.9610198724842162</v>
+        <v>1.020183763885027</v>
       </c>
       <c r="F12">
-        <v>0.9110092476470595</v>
+        <v>1.011899589041938</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028339659263603</v>
+        <v>1.027430552888163</v>
       </c>
       <c r="J12">
-        <v>0.9819969987091616</v>
+        <v>1.023114998577414</v>
       </c>
       <c r="K12">
-        <v>0.9953196786294133</v>
+        <v>1.026291414375148</v>
       </c>
       <c r="L12">
-        <v>0.9769340148185504</v>
+        <v>1.023856285593376</v>
       </c>
       <c r="M12">
-        <v>0.928066001194275</v>
+        <v>1.015604607766131</v>
       </c>
       <c r="N12">
-        <v>0.9833915470839588</v>
+        <v>1.024567939228324</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9503161654899663</v>
+        <v>1.016388817005393</v>
       </c>
       <c r="D13">
-        <v>0.9801008215204888</v>
+        <v>1.022678497114309</v>
       </c>
       <c r="E13">
-        <v>0.9613875626064688</v>
+        <v>1.02024713066587</v>
       </c>
       <c r="F13">
-        <v>0.9116154283969817</v>
+        <v>1.01200036188231</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028471341072534</v>
+        <v>1.02744552274765</v>
       </c>
       <c r="J13">
-        <v>0.9822819881490762</v>
+        <v>1.023162171215063</v>
       </c>
       <c r="K13">
-        <v>0.9955740995180453</v>
+        <v>1.026331562492417</v>
       </c>
       <c r="L13">
-        <v>0.9772472185614992</v>
+        <v>1.023909594627311</v>
       </c>
       <c r="M13">
-        <v>0.9286067596211178</v>
+        <v>1.015695077987818</v>
       </c>
       <c r="N13">
-        <v>0.9836769412415663</v>
+        <v>1.02461517885653</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9516394144050039</v>
+        <v>1.016606115788449</v>
       </c>
       <c r="D14">
-        <v>0.9810985520651596</v>
+        <v>1.022842685244841</v>
       </c>
       <c r="E14">
-        <v>0.962586697891573</v>
+        <v>1.020454721160823</v>
       </c>
       <c r="F14">
-        <v>0.9135902798519796</v>
+        <v>1.012330482090261</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028900189670843</v>
+        <v>1.027494491866494</v>
       </c>
       <c r="J14">
-        <v>0.9832110114085926</v>
+        <v>1.023316674688986</v>
       </c>
       <c r="K14">
-        <v>0.9964033974399932</v>
+        <v>1.026463036307154</v>
       </c>
       <c r="L14">
-        <v>0.9782683800383815</v>
+        <v>1.024084212825376</v>
       </c>
       <c r="M14">
-        <v>0.9303684521981936</v>
+        <v>1.015991430134346</v>
       </c>
       <c r="N14">
-        <v>0.9846072838206719</v>
+        <v>1.024769901743108</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9524497999695036</v>
+        <v>1.016739963618289</v>
       </c>
       <c r="D15">
-        <v>0.9817096901864537</v>
+        <v>1.022943804918448</v>
       </c>
       <c r="E15">
-        <v>0.9633212730028847</v>
+        <v>1.020582597465959</v>
       </c>
       <c r="F15">
-        <v>0.9147985042635129</v>
+        <v>1.012533827152888</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02916243652558</v>
+        <v>1.027524601588488</v>
       </c>
       <c r="J15">
-        <v>0.9837798125146758</v>
+        <v>1.023411822637842</v>
       </c>
       <c r="K15">
-        <v>0.9969110809525259</v>
+        <v>1.026543984727426</v>
       </c>
       <c r="L15">
-        <v>0.9788937180706295</v>
+        <v>1.024191760528374</v>
       </c>
       <c r="M15">
-        <v>0.9314462451013505</v>
+        <v>1.016173961307901</v>
       </c>
       <c r="N15">
-        <v>0.9851768926895685</v>
+        <v>1.024865184812964</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9570942030702363</v>
+        <v>1.017518453643074</v>
       </c>
       <c r="D16">
-        <v>0.9852136545462389</v>
+        <v>1.023531725772547</v>
       </c>
       <c r="E16">
-        <v>0.967534137122821</v>
+        <v>1.021326483732828</v>
       </c>
       <c r="F16">
-        <v>0.9217057740773632</v>
+        <v>1.013716587633471</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030659445786042</v>
+        <v>1.027698911191676</v>
       </c>
       <c r="J16">
-        <v>0.9870373602804069</v>
+        <v>1.023964914540589</v>
       </c>
       <c r="K16">
-        <v>0.9998176336933804</v>
+        <v>1.027014272814801</v>
       </c>
       <c r="L16">
-        <v>0.9824769169337633</v>
+        <v>1.024817122427375</v>
       </c>
       <c r="M16">
-        <v>0.9376074445750261</v>
+        <v>1.017235448369582</v>
       </c>
       <c r="N16">
-        <v>0.9884390665467727</v>
+        <v>1.025419062169654</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9599464383472913</v>
+        <v>1.018006289708512</v>
       </c>
       <c r="D17">
-        <v>0.9873666559878264</v>
+        <v>1.023899952847401</v>
       </c>
       <c r="E17">
-        <v>0.9701238536681159</v>
+        <v>1.021792747866732</v>
       </c>
       <c r="F17">
-        <v>0.9259338217717875</v>
+        <v>1.01445781414853</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031573494237699</v>
+        <v>1.027807422572484</v>
       </c>
       <c r="J17">
-        <v>0.9890358604642281</v>
+        <v>1.024311232565399</v>
       </c>
       <c r="K17">
-        <v>1.001599879736121</v>
+        <v>1.027308511615725</v>
       </c>
       <c r="L17">
-        <v>0.9846768145318653</v>
+        <v>1.025208860116064</v>
       </c>
       <c r="M17">
-        <v>0.9413783399904968</v>
+        <v>1.017900489511488</v>
       </c>
       <c r="N17">
-        <v>0.990440404830086</v>
+        <v>1.025765872005782</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9615890931339006</v>
+        <v>1.0182906615504</v>
       </c>
       <c r="D18">
-        <v>0.9886069605823381</v>
+        <v>1.024114532767528</v>
       </c>
       <c r="E18">
-        <v>0.971616189855155</v>
+        <v>1.02206458519537</v>
       </c>
       <c r="F18">
-        <v>0.9283642827555926</v>
+        <v>1.014889916205605</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032097972696703</v>
+        <v>1.02787041735638</v>
       </c>
       <c r="J18">
-        <v>0.9901860960971802</v>
+        <v>1.024513011324873</v>
       </c>
       <c r="K18">
-        <v>1.002625293972254</v>
+        <v>1.027479863184576</v>
       </c>
       <c r="L18">
-        <v>0.985943536851312</v>
+        <v>1.025437162698913</v>
       </c>
       <c r="M18">
-        <v>0.9435457994297771</v>
+        <v>1.018288112385699</v>
       </c>
       <c r="N18">
-        <v>0.9915922739295708</v>
+        <v>1.025967937314239</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9621457232528813</v>
+        <v>1.018387595554256</v>
       </c>
       <c r="D19">
-        <v>0.9890273046832591</v>
+        <v>1.024187665040885</v>
       </c>
       <c r="E19">
-        <v>0.9721220281237697</v>
+        <v>1.022157253373022</v>
       </c>
       <c r="F19">
-        <v>0.9291871361273741</v>
+        <v>1.015037211128079</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032275365613751</v>
+        <v>1.027891846437184</v>
       </c>
       <c r="J19">
-        <v>0.9905757393964306</v>
+        <v>1.024581775030929</v>
       </c>
       <c r="K19">
-        <v>1.002972591107042</v>
+        <v>1.027538243449922</v>
       </c>
       <c r="L19">
-        <v>0.9863727366262862</v>
+        <v>1.02551497566112</v>
       </c>
       <c r="M19">
-        <v>0.9442795718718824</v>
+        <v>1.018420233958563</v>
       </c>
       <c r="N19">
-        <v>0.991982470566999</v>
+        <v>1.026036798672646</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9596426149713474</v>
+        <v>1.017953967629386</v>
       </c>
       <c r="D20">
-        <v>0.9871372780141997</v>
+        <v>1.023860466354108</v>
       </c>
       <c r="E20">
-        <v>0.9698479029563278</v>
+        <v>1.021742735277013</v>
       </c>
       <c r="F20">
-        <v>0.9254839276146815</v>
+        <v>1.014378312792265</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031476329552086</v>
+        <v>1.027795811170348</v>
       </c>
       <c r="J20">
-        <v>0.9888230544487687</v>
+        <v>1.024274098985875</v>
       </c>
       <c r="K20">
-        <v>1.001410137572246</v>
+        <v>1.027276970835412</v>
       </c>
       <c r="L20">
-        <v>0.9844425034729662</v>
+        <v>1.025166850200882</v>
       </c>
       <c r="M20">
-        <v>0.940977111117234</v>
+        <v>1.017829166409295</v>
       </c>
       <c r="N20">
-        <v>0.9902272966056754</v>
+        <v>1.025728685692316</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9512507802630004</v>
+        <v>1.016542134457368</v>
       </c>
       <c r="D21">
-        <v>0.9808054989756164</v>
+        <v>1.0227943446998</v>
       </c>
       <c r="E21">
-        <v>0.9622344737068262</v>
+        <v>1.020393596578721</v>
       </c>
       <c r="F21">
-        <v>0.9130105291780273</v>
+        <v>1.012233280964485</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028774319260959</v>
+        <v>1.027480084552064</v>
       </c>
       <c r="J21">
-        <v>0.9829381919442276</v>
+        <v>1.023271187012147</v>
       </c>
       <c r="K21">
-        <v>0.99615987597081</v>
+        <v>1.026424332413117</v>
       </c>
       <c r="L21">
-        <v>0.9779684769185929</v>
+        <v>1.024032800529045</v>
       </c>
       <c r="M21">
-        <v>0.9298512817357739</v>
+        <v>1.015904174581177</v>
       </c>
       <c r="N21">
-        <v>0.9843340769213748</v>
+        <v>1.02472434946855</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9457626255410122</v>
+        <v>1.015652843021633</v>
       </c>
       <c r="D22">
-        <v>0.9766692010242403</v>
+        <v>1.022122198529749</v>
       </c>
       <c r="E22">
-        <v>0.9572641882151447</v>
+        <v>1.019544162670643</v>
       </c>
       <c r="F22">
-        <v>0.9048001046437197</v>
+        <v>1.010882317701868</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026989825147709</v>
+        <v>1.02727887896836</v>
       </c>
       <c r="J22">
-        <v>0.9790827676971766</v>
+        <v>1.022638579281378</v>
       </c>
       <c r="K22">
-        <v>0.9927174602434213</v>
+        <v>1.025885761665303</v>
       </c>
       <c r="L22">
-        <v>0.9737326027439225</v>
+        <v>1.023318021372023</v>
       </c>
       <c r="M22">
-        <v>0.9225268759003505</v>
+        <v>1.014691196649576</v>
       </c>
       <c r="N22">
-        <v>0.9804731775296698</v>
+        <v>1.024090843362242</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9486932780286599</v>
+        <v>1.016124428460452</v>
       </c>
       <c r="D23">
-        <v>0.9788774687328186</v>
+        <v>1.022478690918667</v>
       </c>
       <c r="E23">
-        <v>0.9599174427514708</v>
+        <v>1.019994576958136</v>
       </c>
       <c r="F23">
-        <v>0.9091899577169762</v>
+        <v>1.011598711891996</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027944333018099</v>
+        <v>1.02738579788973</v>
       </c>
       <c r="J23">
-        <v>0.9811421818391529</v>
+        <v>1.022974131220721</v>
       </c>
       <c r="K23">
-        <v>0.9945564882253204</v>
+        <v>1.026171504761201</v>
       </c>
       <c r="L23">
-        <v>0.9759947103163036</v>
+        <v>1.023697107488535</v>
       </c>
       <c r="M23">
-        <v>0.926443043792347</v>
+        <v>1.01533447599965</v>
       </c>
       <c r="N23">
-        <v>0.9825355162759454</v>
+        <v>1.024426871823827</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9597799643544798</v>
+        <v>1.017977610264047</v>
       </c>
       <c r="D24">
-        <v>0.9872409717985225</v>
+        <v>1.023878309220668</v>
       </c>
       <c r="E24">
-        <v>0.9699726492502877</v>
+        <v>1.021765334204512</v>
       </c>
       <c r="F24">
-        <v>0.9256873252224265</v>
+        <v>1.01441423678178</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031520260806923</v>
+        <v>1.027801058784053</v>
       </c>
       <c r="J24">
-        <v>0.9889192599211895</v>
+        <v>1.024290878739784</v>
       </c>
       <c r="K24">
-        <v>1.001495917438562</v>
+        <v>1.027291223599491</v>
       </c>
       <c r="L24">
-        <v>0.9845484291808847</v>
+        <v>1.025185833264249</v>
       </c>
       <c r="M24">
-        <v>0.941158507766501</v>
+        <v>1.017861395126363</v>
       </c>
       <c r="N24">
-        <v>0.9903236387009022</v>
+        <v>1.025745489275401</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.971829344418867</v>
+        <v>1.02012129322304</v>
       </c>
       <c r="D25">
-        <v>0.9963436022413887</v>
+        <v>1.025494627471248</v>
       </c>
       <c r="E25">
-        <v>0.9809339417017422</v>
+        <v>1.023815248927243</v>
       </c>
       <c r="F25">
-        <v>0.9434468498730941</v>
+        <v>1.017672025732556</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035332430314847</v>
+        <v>1.028271258337103</v>
       </c>
       <c r="J25">
-        <v>0.9973434328126061</v>
+        <v>1.025810170831217</v>
       </c>
       <c r="K25">
-        <v>1.008998945501334</v>
+        <v>1.028579899754605</v>
       </c>
       <c r="L25">
-        <v>0.9938356246433082</v>
+        <v>1.026905925433863</v>
       </c>
       <c r="M25">
-        <v>0.9569914751140863</v>
+        <v>1.020782637572594</v>
       </c>
       <c r="N25">
-        <v>0.9987597748840907</v>
+        <v>1.027266938935868</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_129/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_129/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.021825799315812</v>
+        <v>0.9808796602661547</v>
       </c>
       <c r="D2">
-        <v>1.02677758826004</v>
+        <v>1.003185260890933</v>
       </c>
       <c r="E2">
-        <v>1.025446449336963</v>
+        <v>0.9891904242779497</v>
       </c>
       <c r="F2">
-        <v>1.020263360083504</v>
+        <v>0.9566901678769163</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.028636915750121</v>
+        <v>1.038133375796825</v>
       </c>
       <c r="J2">
-        <v>1.027015082493927</v>
+        <v>1.003647694853418</v>
       </c>
       <c r="K2">
-        <v>1.029599243765538</v>
+        <v>1.014600397625697</v>
       </c>
       <c r="L2">
-        <v>1.028271995973042</v>
+        <v>1.000802436544836</v>
       </c>
       <c r="M2">
-        <v>1.023104162991646</v>
+        <v>0.9687877744751215</v>
       </c>
       <c r="N2">
-        <v>1.028473561711347</v>
+        <v>1.00507298970011</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.023060463188128</v>
+        <v>0.9871663943449521</v>
       </c>
       <c r="D3">
-        <v>1.027705593567972</v>
+        <v>1.007938012700554</v>
       </c>
       <c r="E3">
-        <v>1.026628730790911</v>
+        <v>0.9949380323240355</v>
       </c>
       <c r="F3">
-        <v>1.022141080287777</v>
+        <v>0.9658497242226776</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.028897005054352</v>
+        <v>1.040041530652696</v>
       </c>
       <c r="J3">
-        <v>1.027886049338967</v>
+        <v>1.008013137407179</v>
       </c>
       <c r="K3">
-        <v>1.030334508988781</v>
+        <v>1.018470322799204</v>
       </c>
       <c r="L3">
-        <v>1.029260564439648</v>
+        <v>1.005636094345149</v>
       </c>
       <c r="M3">
-        <v>1.02478514686409</v>
+        <v>0.976939052496972</v>
       </c>
       <c r="N3">
-        <v>1.029345765429206</v>
+        <v>1.00944463168302</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.023858039731887</v>
+        <v>0.9911141025712381</v>
       </c>
       <c r="D4">
-        <v>1.028304458515929</v>
+        <v>1.010921853980466</v>
       </c>
       <c r="E4">
-        <v>1.027392797558433</v>
+        <v>0.9985525297670258</v>
       </c>
       <c r="F4">
-        <v>1.023354415912725</v>
+        <v>0.9715872419210645</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.0290628047428</v>
+        <v>1.041221930591055</v>
       </c>
       <c r="J4">
-        <v>1.028447841553504</v>
+        <v>1.010747874538617</v>
       </c>
       <c r="K4">
-        <v>1.030808041505883</v>
+        <v>1.020890225062564</v>
       </c>
       <c r="L4">
-        <v>1.029898725652598</v>
+        <v>1.00866845592969</v>
       </c>
       <c r="M4">
-        <v>1.025870786334476</v>
+        <v>0.9820411271343505</v>
       </c>
       <c r="N4">
-        <v>1.029908355453126</v>
+        <v>1.012183252454864</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.024193026489813</v>
+        <v>0.9927464755026393</v>
       </c>
       <c r="D5">
-        <v>1.02855583703917</v>
+        <v>1.012155420155584</v>
       </c>
       <c r="E5">
-        <v>1.027713788236555</v>
+        <v>1.0000483499682</v>
       </c>
       <c r="F5">
-        <v>1.023864114188115</v>
+        <v>0.973956861412536</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.029131910553565</v>
+        <v>1.041705680640467</v>
       </c>
       <c r="J5">
-        <v>1.028683595978233</v>
+        <v>1.01187710005249</v>
       </c>
       <c r="K5">
-        <v>1.031006582556831</v>
+        <v>1.021888342695298</v>
       </c>
       <c r="L5">
-        <v>1.030166651159147</v>
+        <v>1.009921605931829</v>
       </c>
       <c r="M5">
-        <v>1.026326705254306</v>
+        <v>0.9841473250434858</v>
       </c>
       <c r="N5">
-        <v>1.03014444467618</v>
+        <v>1.01331408159849</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.024249253942322</v>
+        <v>0.9930190028794245</v>
       </c>
       <c r="D6">
-        <v>1.028598022141548</v>
+        <v>1.012361348588026</v>
       </c>
       <c r="E6">
-        <v>1.027767671024671</v>
+        <v>1.000298150578627</v>
       </c>
       <c r="F6">
-        <v>1.023949672392328</v>
+        <v>0.9743523216861423</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.029143478781323</v>
+        <v>1.041786186008289</v>
       </c>
       <c r="J6">
-        <v>1.028723155478028</v>
+        <v>1.012065532210244</v>
       </c>
       <c r="K6">
-        <v>1.031039887350632</v>
+        <v>1.022054830665378</v>
       </c>
       <c r="L6">
-        <v>1.030211616175844</v>
+        <v>1.010130777643399</v>
       </c>
       <c r="M6">
-        <v>1.026403228003625</v>
+        <v>0.9844987643184177</v>
       </c>
       <c r="N6">
-        <v>1.030184060355002</v>
+        <v>1.013502781351521</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.023862517070864</v>
+        <v>0.991136019527191</v>
       </c>
       <c r="D7">
-        <v>1.028307818954823</v>
+        <v>1.010938417497095</v>
       </c>
       <c r="E7">
-        <v>1.027397087522814</v>
+        <v>0.9985726085023273</v>
       </c>
       <c r="F7">
-        <v>1.023361228034744</v>
+        <v>0.9716190680051067</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.029063730480139</v>
+        <v>1.04122844291713</v>
       </c>
       <c r="J7">
-        <v>1.02845099337359</v>
+        <v>1.010763042321788</v>
       </c>
       <c r="K7">
-        <v>1.030810696508415</v>
+        <v>1.020903636244118</v>
       </c>
       <c r="L7">
-        <v>1.029902307086387</v>
+        <v>1.008685284196802</v>
       </c>
       <c r="M7">
-        <v>1.025876880232675</v>
+        <v>0.9820694191860302</v>
       </c>
       <c r="N7">
-        <v>1.029911511749158</v>
+        <v>1.012198441778026</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.022243338790567</v>
+        <v>0.983030155167949</v>
       </c>
       <c r="D8">
-        <v>1.027091548352016</v>
+        <v>1.004811093891034</v>
       </c>
       <c r="E8">
-        <v>1.025846205712676</v>
+        <v>0.9911553450572548</v>
       </c>
       <c r="F8">
-        <v>1.020898299041431</v>
+        <v>0.9598267162284249</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.028725331490365</v>
+        <v>1.038789811213845</v>
       </c>
       <c r="J8">
-        <v>1.027309800815086</v>
+        <v>1.005142336020002</v>
       </c>
       <c r="K8">
-        <v>1.029848194089711</v>
+        <v>1.015926287859686</v>
       </c>
       <c r="L8">
-        <v>1.02860640194622</v>
+        <v>1.002456470854237</v>
       </c>
       <c r="M8">
-        <v>1.0236726948276</v>
+        <v>0.9715798342820967</v>
       </c>
       <c r="N8">
-        <v>1.028768698566325</v>
+        <v>1.006569753428587</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.019379708402245</v>
+        <v>0.9677488994652391</v>
       </c>
       <c r="D9">
-        <v>1.024935820383436</v>
+        <v>0.9932599504341959</v>
       </c>
       <c r="E9">
-        <v>1.023105906916156</v>
+        <v>0.9772180473341047</v>
       </c>
       <c r="F9">
-        <v>1.01654489301558</v>
+        <v>0.937450440250869</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.02810986875443</v>
+        <v>1.034051211644084</v>
       </c>
       <c r="J9">
-        <v>1.025285071067572</v>
+        <v>0.9944942863564774</v>
       </c>
       <c r="K9">
-        <v>1.028134918464202</v>
+        <v>1.006463335042038</v>
       </c>
       <c r="L9">
-        <v>1.026311128683648</v>
+        <v>0.9906918864787264</v>
       </c>
       <c r="M9">
-        <v>1.019772269943535</v>
+        <v>0.9516469902710437</v>
       </c>
       <c r="N9">
-        <v>1.02674109347033</v>
+        <v>0.9959065823131926</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.017463299696199</v>
+        <v>0.9567689598764317</v>
       </c>
       <c r="D10">
-        <v>1.023490085329444</v>
+        <v>0.9849681979234564</v>
       </c>
       <c r="E10">
-        <v>1.021273774141786</v>
+        <v>0.9672389504932747</v>
       </c>
       <c r="F10">
-        <v>1.013632788682517</v>
+        <v>0.9212229913861346</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027686607995972</v>
+        <v>1.030554952759146</v>
       </c>
       <c r="J10">
-        <v>1.023925747036516</v>
+        <v>0.9868093687520866</v>
       </c>
       <c r="K10">
-        <v>1.026980983986623</v>
+        <v>0.9996142657303966</v>
       </c>
       <c r="L10">
-        <v>1.024772826293016</v>
+        <v>0.982226028670106</v>
       </c>
       <c r="M10">
-        <v>1.017160253517119</v>
+        <v>0.9371768361643287</v>
       </c>
       <c r="N10">
-        <v>1.025379839043232</v>
+        <v>0.9882107512443311</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.016631667316579</v>
+        <v>0.9517943911689559</v>
       </c>
       <c r="D11">
-        <v>1.022861989800422</v>
+        <v>0.9812154188902075</v>
       </c>
       <c r="E11">
-        <v>1.02047913222983</v>
+        <v>0.9627271650668648</v>
       </c>
       <c r="F11">
-        <v>1.012369300417548</v>
+        <v>0.9138214095351267</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027500242958489</v>
+        <v>1.028950364388442</v>
       </c>
       <c r="J11">
-        <v>1.023334839616875</v>
+        <v>0.9833197969847124</v>
       </c>
       <c r="K11">
-        <v>1.026478491381429</v>
+        <v>0.9965004976296035</v>
       </c>
       <c r="L11">
-        <v>1.024104744283474</v>
+        <v>0.9783879711829144</v>
       </c>
       <c r="M11">
-        <v>1.016026275922723</v>
+        <v>0.9305746319952471</v>
       </c>
       <c r="N11">
-        <v>1.024788092467278</v>
+        <v>0.9847162238847877</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.016322483263182</v>
+        <v>0.9499103293955012</v>
       </c>
       <c r="D12">
-        <v>1.022628370626005</v>
+        <v>0.9797948651997065</v>
       </c>
       <c r="E12">
-        <v>1.020183763885027</v>
+        <v>0.9610198724842172</v>
       </c>
       <c r="F12">
-        <v>1.011899589041938</v>
+        <v>0.9110092476470603</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027430552888163</v>
+        <v>1.028339659263604</v>
       </c>
       <c r="J12">
-        <v>1.023114998577414</v>
+        <v>0.9819969987091623</v>
       </c>
       <c r="K12">
-        <v>1.026291414375148</v>
+        <v>0.995319678629414</v>
       </c>
       <c r="L12">
-        <v>1.023856285593376</v>
+        <v>0.9769340148185514</v>
       </c>
       <c r="M12">
-        <v>1.015604607766131</v>
+        <v>0.9280660011942757</v>
       </c>
       <c r="N12">
-        <v>1.024567939228324</v>
+        <v>0.9833915470839595</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.016388817005393</v>
+        <v>0.9503161654899661</v>
       </c>
       <c r="D13">
-        <v>1.022678497114309</v>
+        <v>0.9801008215204886</v>
       </c>
       <c r="E13">
-        <v>1.02024713066587</v>
+        <v>0.9613875626064685</v>
       </c>
       <c r="F13">
-        <v>1.01200036188231</v>
+        <v>0.911615428396981</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.02744552274765</v>
+        <v>1.028471341072533</v>
       </c>
       <c r="J13">
-        <v>1.023162171215063</v>
+        <v>0.9822819881490757</v>
       </c>
       <c r="K13">
-        <v>1.026331562492417</v>
+        <v>0.995574099518045</v>
       </c>
       <c r="L13">
-        <v>1.023909594627311</v>
+        <v>0.9772472185614987</v>
       </c>
       <c r="M13">
-        <v>1.015695077987818</v>
+        <v>0.9286067596211171</v>
       </c>
       <c r="N13">
-        <v>1.02461517885653</v>
+        <v>0.9836769412415661</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.016606115788449</v>
+        <v>0.9516394144050031</v>
       </c>
       <c r="D14">
-        <v>1.022842685244841</v>
+        <v>0.9810985520651587</v>
       </c>
       <c r="E14">
-        <v>1.020454721160823</v>
+        <v>0.9625866978915726</v>
       </c>
       <c r="F14">
-        <v>1.012330482090261</v>
+        <v>0.9135902798519784</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027494491866494</v>
+        <v>1.028900189670843</v>
       </c>
       <c r="J14">
-        <v>1.023316674688986</v>
+        <v>0.983211011408592</v>
       </c>
       <c r="K14">
-        <v>1.026463036307154</v>
+        <v>0.9964033974399925</v>
       </c>
       <c r="L14">
-        <v>1.024084212825376</v>
+        <v>0.9782683800383807</v>
       </c>
       <c r="M14">
-        <v>1.015991430134346</v>
+        <v>0.9303684521981923</v>
       </c>
       <c r="N14">
-        <v>1.024769901743108</v>
+        <v>0.9846072838206715</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.016739963618289</v>
+        <v>0.9524497999695049</v>
       </c>
       <c r="D15">
-        <v>1.022943804918448</v>
+        <v>0.9817096901864548</v>
       </c>
       <c r="E15">
-        <v>1.020582597465959</v>
+        <v>0.9633212730028859</v>
       </c>
       <c r="F15">
-        <v>1.012533827152888</v>
+        <v>0.9147985042635145</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027524601588488</v>
+        <v>1.02916243652558</v>
       </c>
       <c r="J15">
-        <v>1.023411822637842</v>
+        <v>0.9837798125146768</v>
       </c>
       <c r="K15">
-        <v>1.026543984727426</v>
+        <v>0.9969110809525269</v>
       </c>
       <c r="L15">
-        <v>1.024191760528374</v>
+        <v>0.978893718070631</v>
       </c>
       <c r="M15">
-        <v>1.016173961307901</v>
+        <v>0.9314462451013519</v>
       </c>
       <c r="N15">
-        <v>1.024865184812964</v>
+        <v>0.9851768926895695</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.017518453643074</v>
+        <v>0.9570942030702357</v>
       </c>
       <c r="D16">
-        <v>1.023531725772547</v>
+        <v>0.9852136545462384</v>
       </c>
       <c r="E16">
-        <v>1.021326483732828</v>
+        <v>0.9675341371228204</v>
       </c>
       <c r="F16">
-        <v>1.013716587633471</v>
+        <v>0.9217057740773622</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027698911191676</v>
+        <v>1.030659445786042</v>
       </c>
       <c r="J16">
-        <v>1.023964914540589</v>
+        <v>0.9870373602804065</v>
       </c>
       <c r="K16">
-        <v>1.027014272814801</v>
+        <v>0.9998176336933799</v>
       </c>
       <c r="L16">
-        <v>1.024817122427375</v>
+        <v>0.9824769169337627</v>
       </c>
       <c r="M16">
-        <v>1.017235448369582</v>
+        <v>0.9376074445750252</v>
       </c>
       <c r="N16">
-        <v>1.025419062169654</v>
+        <v>0.9884390665467722</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.018006289708512</v>
+        <v>0.959946438347293</v>
       </c>
       <c r="D17">
-        <v>1.023899952847401</v>
+        <v>0.9873666559878278</v>
       </c>
       <c r="E17">
-        <v>1.021792747866732</v>
+        <v>0.9701238536681177</v>
       </c>
       <c r="F17">
-        <v>1.01445781414853</v>
+        <v>0.9259338217717892</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027807422572484</v>
+        <v>1.0315734942377</v>
       </c>
       <c r="J17">
-        <v>1.024311232565399</v>
+        <v>0.9890358604642296</v>
       </c>
       <c r="K17">
-        <v>1.027308511615725</v>
+        <v>1.001599879736122</v>
       </c>
       <c r="L17">
-        <v>1.025208860116064</v>
+        <v>0.9846768145318668</v>
       </c>
       <c r="M17">
-        <v>1.017900489511488</v>
+        <v>0.9413783399904981</v>
       </c>
       <c r="N17">
-        <v>1.025765872005782</v>
+        <v>0.9904404048300876</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.0182906615504</v>
+        <v>0.9615890931339021</v>
       </c>
       <c r="D18">
-        <v>1.024114532767528</v>
+        <v>0.9886069605823394</v>
       </c>
       <c r="E18">
-        <v>1.02206458519537</v>
+        <v>0.9716161898551563</v>
       </c>
       <c r="F18">
-        <v>1.014889916205605</v>
+        <v>0.9283642827555935</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.02787041735638</v>
+        <v>1.032097972696703</v>
       </c>
       <c r="J18">
-        <v>1.024513011324873</v>
+        <v>0.9901860960971813</v>
       </c>
       <c r="K18">
-        <v>1.027479863184576</v>
+        <v>1.002625293972256</v>
       </c>
       <c r="L18">
-        <v>1.025437162698913</v>
+        <v>0.9859435368513132</v>
       </c>
       <c r="M18">
-        <v>1.018288112385699</v>
+        <v>0.9435457994297781</v>
       </c>
       <c r="N18">
-        <v>1.025967937314239</v>
+        <v>0.9915922739295722</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.018387595554256</v>
+        <v>0.9621457232528809</v>
       </c>
       <c r="D19">
-        <v>1.024187665040885</v>
+        <v>0.9890273046832589</v>
       </c>
       <c r="E19">
-        <v>1.022157253373022</v>
+        <v>0.9721220281237697</v>
       </c>
       <c r="F19">
-        <v>1.015037211128079</v>
+        <v>0.9291871361273738</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027891846437184</v>
+        <v>1.032275365613751</v>
       </c>
       <c r="J19">
-        <v>1.024581775030929</v>
+        <v>0.9905757393964304</v>
       </c>
       <c r="K19">
-        <v>1.027538243449922</v>
+        <v>1.002972591107042</v>
       </c>
       <c r="L19">
-        <v>1.02551497566112</v>
+        <v>0.9863727366262861</v>
       </c>
       <c r="M19">
-        <v>1.018420233958563</v>
+        <v>0.9442795718718821</v>
       </c>
       <c r="N19">
-        <v>1.026036798672646</v>
+        <v>0.9919824705669988</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.017953967629386</v>
+        <v>0.9596426149713482</v>
       </c>
       <c r="D20">
-        <v>1.023860466354108</v>
+        <v>0.9871372780142</v>
       </c>
       <c r="E20">
-        <v>1.021742735277013</v>
+        <v>0.9698479029563289</v>
       </c>
       <c r="F20">
-        <v>1.014378312792265</v>
+        <v>0.9254839276146822</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027795811170348</v>
+        <v>1.031476329552086</v>
       </c>
       <c r="J20">
-        <v>1.024274098985875</v>
+        <v>0.9888230544487693</v>
       </c>
       <c r="K20">
-        <v>1.027276970835412</v>
+        <v>1.001410137572246</v>
       </c>
       <c r="L20">
-        <v>1.025166850200882</v>
+        <v>0.9844425034729674</v>
       </c>
       <c r="M20">
-        <v>1.017829166409295</v>
+        <v>0.9409771111172349</v>
       </c>
       <c r="N20">
-        <v>1.025728685692316</v>
+        <v>0.9902272966056762</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.016542134457368</v>
+        <v>0.9512507802630005</v>
       </c>
       <c r="D21">
-        <v>1.0227943446998</v>
+        <v>0.9808054989756164</v>
       </c>
       <c r="E21">
-        <v>1.020393596578721</v>
+        <v>0.962234473706826</v>
       </c>
       <c r="F21">
-        <v>1.012233280964485</v>
+        <v>0.9130105291780276</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027480084552064</v>
+        <v>1.028774319260959</v>
       </c>
       <c r="J21">
-        <v>1.023271187012147</v>
+        <v>0.9829381919442276</v>
       </c>
       <c r="K21">
-        <v>1.026424332413117</v>
+        <v>0.99615987597081</v>
       </c>
       <c r="L21">
-        <v>1.024032800529045</v>
+        <v>0.9779684769185928</v>
       </c>
       <c r="M21">
-        <v>1.015904174581177</v>
+        <v>0.9298512817357742</v>
       </c>
       <c r="N21">
-        <v>1.02472434946855</v>
+        <v>0.9843340769213749</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.015652843021633</v>
+        <v>0.9457626255410115</v>
       </c>
       <c r="D22">
-        <v>1.022122198529749</v>
+        <v>0.9766692010242394</v>
       </c>
       <c r="E22">
-        <v>1.019544162670643</v>
+        <v>0.9572641882151439</v>
       </c>
       <c r="F22">
-        <v>1.010882317701868</v>
+        <v>0.9048001046437193</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.02727887896836</v>
+        <v>1.026989825147709</v>
       </c>
       <c r="J22">
-        <v>1.022638579281378</v>
+        <v>0.9790827676971762</v>
       </c>
       <c r="K22">
-        <v>1.025885761665303</v>
+        <v>0.9927174602434204</v>
       </c>
       <c r="L22">
-        <v>1.023318021372023</v>
+        <v>0.9737326027439217</v>
       </c>
       <c r="M22">
-        <v>1.014691196649576</v>
+        <v>0.92252687590035</v>
       </c>
       <c r="N22">
-        <v>1.024090843362242</v>
+        <v>0.9804731775296693</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.016124428460452</v>
+        <v>0.9486932780286603</v>
       </c>
       <c r="D23">
-        <v>1.022478690918667</v>
+        <v>0.9788774687328187</v>
       </c>
       <c r="E23">
-        <v>1.019994576958136</v>
+        <v>0.9599174427514714</v>
       </c>
       <c r="F23">
-        <v>1.011598711891996</v>
+        <v>0.909189957716977</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02738579788973</v>
+        <v>1.027944333018099</v>
       </c>
       <c r="J23">
-        <v>1.022974131220721</v>
+        <v>0.9811421818391534</v>
       </c>
       <c r="K23">
-        <v>1.026171504761201</v>
+        <v>0.9945564882253206</v>
       </c>
       <c r="L23">
-        <v>1.023697107488535</v>
+        <v>0.9759947103163038</v>
       </c>
       <c r="M23">
-        <v>1.01533447599965</v>
+        <v>0.9264430437923478</v>
       </c>
       <c r="N23">
-        <v>1.024426871823827</v>
+        <v>0.982535516275946</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.017977610264047</v>
+        <v>0.9597799643544814</v>
       </c>
       <c r="D24">
-        <v>1.023878309220668</v>
+        <v>0.9872409717985241</v>
       </c>
       <c r="E24">
-        <v>1.021765334204512</v>
+        <v>0.9699726492502896</v>
       </c>
       <c r="F24">
-        <v>1.01441423678178</v>
+        <v>0.9256873252224286</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027801058784053</v>
+        <v>1.031520260806924</v>
       </c>
       <c r="J24">
-        <v>1.024290878739784</v>
+        <v>0.9889192599211912</v>
       </c>
       <c r="K24">
-        <v>1.027291223599491</v>
+        <v>1.001495917438564</v>
       </c>
       <c r="L24">
-        <v>1.025185833264249</v>
+        <v>0.9845484291808866</v>
       </c>
       <c r="M24">
-        <v>1.017861395126363</v>
+        <v>0.9411585077665032</v>
       </c>
       <c r="N24">
-        <v>1.025745489275401</v>
+        <v>0.9903236387009038</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.02012129322304</v>
+        <v>0.9718293444188668</v>
       </c>
       <c r="D25">
-        <v>1.025494627471248</v>
+        <v>0.9963436022413883</v>
       </c>
       <c r="E25">
-        <v>1.023815248927243</v>
+        <v>0.9809339417017415</v>
       </c>
       <c r="F25">
-        <v>1.017672025732556</v>
+        <v>0.9434468498730937</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.028271258337103</v>
+        <v>1.035332430314847</v>
       </c>
       <c r="J25">
-        <v>1.025810170831217</v>
+        <v>0.9973434328126056</v>
       </c>
       <c r="K25">
-        <v>1.028579899754605</v>
+        <v>1.008998945501333</v>
       </c>
       <c r="L25">
-        <v>1.026905925433863</v>
+        <v>0.9938356246433075</v>
       </c>
       <c r="M25">
-        <v>1.020782637572594</v>
+        <v>0.9569914751140857</v>
       </c>
       <c r="N25">
-        <v>1.027266938935868</v>
+        <v>0.9987597748840903</v>
       </c>
     </row>
   </sheetData>
